--- a/configs/datas/__tables__.xlsx
+++ b/configs/datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11560"/>
+    <workbookView windowWidth="28800" windowHeight="11620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,13 +110,13 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>item.TbItem</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>item.xlsx</t>
+    <t>guide.TbGuide</t>
+  </si>
+  <si>
+    <t>GuideItem</t>
+  </si>
+  <si>
+    <t>guide.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>

--- a/configs/datas/__tables__.xlsx
+++ b/configs/datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -116,7 +116,16 @@
     <t>GuideItem</t>
   </si>
   <si>
-    <t>guide.xlsx</t>
+    <t>main@guide.xlsx</t>
+  </si>
+  <si>
+    <t>guide.TbGuideScene</t>
+  </si>
+  <si>
+    <t>GuideScene</t>
+  </si>
+  <si>
+    <t>scene@guide.xlsx</t>
   </si>
 </sst>
 </file>
@@ -732,11 +741,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,13 +1070,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="20.3839285714286" customWidth="1"/>
     <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
@@ -1173,11 +1185,29 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" display="main@guide.xlsx"/>
+    <hyperlink ref="E5" r:id="rId2" display="scene@guide.xlsx"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
